--- a/input/classify_problem.xlsx
+++ b/input/classify_problem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukke\PycharmProjects\flask_app\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukke\git\eval_system\gathering-info-system\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E48D1-DBCC-4529-87C3-EF8D93D0DF7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B840CA6-A61A-4268-A761-E2BD0019D3D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-310" yWindow="1290" windowWidth="10480" windowHeight="9870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="284">
   <si>
     <t>P_106</t>
   </si>
@@ -79,9 +79,6 @@
     <t>P_80</t>
   </si>
   <si>
-    <t>communicate</t>
-  </si>
-  <si>
     <t>S_118</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>P_213</t>
   </si>
   <si>
-    <t>go for</t>
-  </si>
-  <si>
     <t>S_87</t>
   </si>
   <si>
@@ -205,18 +199,12 @@
     <t>S_90</t>
   </si>
   <si>
-    <t>所属</t>
-  </si>
-  <si>
     <t>P_136</t>
   </si>
   <si>
     <t>S_148</t>
   </si>
   <si>
-    <t>不定詞</t>
-  </si>
-  <si>
     <t>P_112</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>S_199</t>
   </si>
   <si>
-    <t>間接目的語</t>
-  </si>
-  <si>
     <t>P_137</t>
   </si>
   <si>
@@ -271,18 +256,12 @@
     <t>P_52</t>
   </si>
   <si>
-    <t>場所や組織</t>
-  </si>
-  <si>
     <t>S_26</t>
   </si>
   <si>
     <t>P_56</t>
   </si>
   <si>
-    <t>前置詞の使い方</t>
-  </si>
-  <si>
     <t>S_113</t>
   </si>
   <si>
@@ -328,9 +307,6 @@
     <t>P_192</t>
   </si>
   <si>
-    <t>時間</t>
-  </si>
-  <si>
     <t>S_54</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>P_207</t>
   </si>
   <si>
-    <t>because of</t>
-  </si>
-  <si>
     <t>S_189</t>
   </si>
   <si>
@@ -382,9 +355,6 @@
     <t>P_42</t>
   </si>
   <si>
-    <t>compete</t>
-  </si>
-  <si>
     <t>S_72</t>
   </si>
   <si>
@@ -415,9 +385,6 @@
     <t>P_85</t>
   </si>
   <si>
-    <t>graduate</t>
-  </si>
-  <si>
     <t>S_211</t>
   </si>
   <si>
@@ -427,18 +394,12 @@
     <t>S_50</t>
   </si>
   <si>
-    <t>reaason</t>
-  </si>
-  <si>
     <t>P_160</t>
   </si>
   <si>
     <t>S_56</t>
   </si>
   <si>
-    <t>separate</t>
-  </si>
-  <si>
     <t>P_210</t>
   </si>
   <si>
@@ -457,9 +418,6 @@
     <t>S_14</t>
   </si>
   <si>
-    <t>toward</t>
-  </si>
-  <si>
     <t>P_81</t>
   </si>
   <si>
@@ -646,18 +604,12 @@
     <t>S_10</t>
   </si>
   <si>
-    <t>but also</t>
-  </si>
-  <si>
     <t>P_15</t>
   </si>
   <si>
     <t>S_35</t>
   </si>
   <si>
-    <t>contain</t>
-  </si>
-  <si>
     <t>P_174</t>
   </si>
   <si>
@@ -817,9 +769,6 @@
     <t>S_60</t>
   </si>
   <si>
-    <t>対象</t>
-  </si>
-  <si>
     <t>P_186</t>
   </si>
   <si>
@@ -832,37 +781,176 @@
     <t>S_153</t>
   </si>
   <si>
-    <t>場所や組織</t>
-    <rPh sb="3" eb="5">
+    <t>期間のduring</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組織</t>
+    <rPh sb="0" eb="2">
       <t>ソシキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>場所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組織</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前置詞の意味的</t>
+    <rPh sb="4" eb="7">
+      <t>イミテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前置詞の文法的</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンチシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ブンポウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助動詞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>副詞句</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的語</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>because</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主語</t>
+    <rPh sb="0" eb="2">
+      <t>シュゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="1" eb="2">
+      <t>オリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>have</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>angly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>harmful</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sort of</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>場所</t>
+      <t>接続詞</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>や組織</t>
+      <t>because</t>
     </r>
-    <rPh sb="3" eb="5">
-      <t>ソシキ</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>期間</t>
+    <t>go</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主語</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的語</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -870,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -895,8 +983,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -920,10 +1014,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,7 +1337,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1274,10 +1369,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1334,19 +1429,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -1354,19 +1449,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -1374,19 +1469,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -1394,19 +1489,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -1414,19 +1509,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -1434,19 +1529,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
@@ -1454,19 +1549,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -1474,19 +1569,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1494,19 +1589,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -1514,39 +1609,39 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -1554,19 +1649,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -1583,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -1594,19 +1689,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>253</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -1614,19 +1709,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>270</v>
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -1634,19 +1729,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -1654,19 +1749,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -1674,19 +1769,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -1694,19 +1789,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
+      <c r="E23" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -1714,19 +1809,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
+      <c r="E24" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -1734,16 +1829,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -1754,19 +1849,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -1774,19 +1869,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -1794,59 +1889,59 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -1854,16 +1949,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1874,19 +1969,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -1894,19 +1989,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -1914,19 +2009,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -1934,19 +2029,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -1954,19 +2049,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -1974,19 +2069,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -1994,19 +2089,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2014,19 +2109,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -2034,39 +2129,39 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -2074,19 +2169,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -2094,19 +2189,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -2114,19 +2209,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
+        <v>171</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
@@ -2134,19 +2229,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>272</v>
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
@@ -2154,19 +2249,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
@@ -2174,19 +2269,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>247</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>153</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2194,19 +2289,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
@@ -2214,19 +2309,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2234,19 +2329,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -2254,19 +2349,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -2274,19 +2369,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -2294,19 +2389,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -2314,19 +2409,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" t="s">
-        <v>64</v>
+        <v>157</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
@@ -2334,39 +2429,39 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
+        <v>154</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" t="s">
-        <v>68</v>
+        <v>159</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -2374,19 +2469,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
+        <v>170</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" t="s">
-        <v>68</v>
+        <v>165</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -2394,19 +2489,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
+        <v>160</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" t="s">
-        <v>99</v>
+        <v>150</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="F58" t="s">
         <v>5</v>
@@ -2414,19 +2509,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -2434,19 +2529,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>186</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
+        <v>156</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -2454,19 +2549,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -2474,7 +2569,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
@@ -2483,10 +2578,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2494,7 +2589,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
@@ -2503,10 +2598,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -2514,19 +2609,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -2534,39 +2629,39 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -2574,19 +2669,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -2594,19 +2689,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -2614,19 +2709,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -2634,19 +2729,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -2654,19 +2749,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -2674,19 +2769,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -2694,19 +2789,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -2714,19 +2809,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -2734,19 +2829,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -2754,19 +2849,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -2774,19 +2869,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
+        <v>246</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -2794,19 +2889,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>245</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E78" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -2814,19 +2909,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>270</v>
+        <v>227</v>
+      </c>
+      <c r="E79" t="s">
+        <v>259</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -2834,19 +2929,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -2854,19 +2949,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>246</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>271</v>
+        <v>120</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
-      </c>
-      <c r="E81" t="s">
-        <v>86</v>
+        <v>222</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -2874,19 +2969,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2894,19 +2989,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2914,19 +3009,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>252</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
-      </c>
-      <c r="E84" t="s">
-        <v>265</v>
+        <v>237</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2934,19 +3029,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>254</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
+        <v>238</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
-      </c>
-      <c r="E85" t="s">
-        <v>64</v>
+        <v>191</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2954,19 +3049,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B86" t="s">
-        <v>257</v>
-      </c>
       <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
-      </c>
-      <c r="E86" t="s">
-        <v>68</v>
+        <v>193</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2974,19 +3069,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>259</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
+        <v>232</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
-      </c>
-      <c r="E87" t="s">
-        <v>68</v>
+        <v>239</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2994,19 +3089,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>261</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
+        <v>234</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
-      </c>
-      <c r="E88" t="s">
-        <v>68</v>
+        <v>244</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3014,19 +3109,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3034,27 +3129,27 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:F90">
-    <sortCondition ref="F1:F90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C90">
+    <sortCondition ref="C1:C90"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
